--- a/Beneficient/test_LiquidTrust/Executiondir/Execution.xlsx
+++ b/Beneficient/test_LiquidTrust/Executiondir/Execution.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -476,7 +476,21 @@
         </is>
       </c>
     </row>
-    <row r="7"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>test_SummaryByPeriod_Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>test_TrustAccounting_Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
